--- a/phase_4_dcf_model/watchlist.xlsx
+++ b/phase_4_dcf_model/watchlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delic\OneDrive\Desktop\pythonvaluationmodel\phase_4_dcf_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A776C858-CF87-423C-B394-1C8C123FFD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B779E72A-498D-4654-AC8C-2D58D51089E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,129 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>tsla</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>aapl</t>
-  </si>
-  <si>
-    <t>xom</t>
-  </si>
-  <si>
-    <t>ko</t>
-  </si>
-  <si>
-    <t>googl</t>
-  </si>
-  <si>
-    <t>nvda</t>
-  </si>
-  <si>
-    <t>msft</t>
-  </si>
-  <si>
-    <t>tsm</t>
-  </si>
-  <si>
-    <t>wmt</t>
-  </si>
-  <si>
-    <t>wm</t>
-  </si>
-  <si>
-    <t>pltr</t>
-  </si>
-  <si>
-    <t>nflx</t>
-  </si>
-  <si>
-    <t>hd</t>
-  </si>
-  <si>
-    <t>bac</t>
-  </si>
-  <si>
-    <t>amd</t>
-  </si>
-  <si>
-    <t>abbv</t>
-  </si>
-  <si>
-    <t>atz</t>
-  </si>
-  <si>
-    <t>baba</t>
-  </si>
-  <si>
-    <t>pg</t>
-  </si>
-  <si>
-    <t>wfc</t>
-  </si>
-  <si>
-    <t>pm</t>
-  </si>
-  <si>
-    <t>rtx</t>
-  </si>
-  <si>
-    <t>nvo</t>
-  </si>
-  <si>
-    <t>amat</t>
-  </si>
-  <si>
-    <t>intc</t>
-  </si>
-  <si>
-    <t>ry</t>
-  </si>
-  <si>
-    <t>mcd</t>
-  </si>
-  <si>
-    <t>pep</t>
-  </si>
-  <si>
-    <t>tmus</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>shel</t>
-  </si>
-  <si>
-    <t>tmo</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>vz</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>nee</t>
-  </si>
-  <si>
-    <t>dis</t>
-  </si>
-  <si>
-    <t>schw</t>
-  </si>
-  <si>
-    <t>crm</t>
-  </si>
-  <si>
-    <t>ba</t>
-  </si>
-  <si>
-    <t>blk</t>
   </si>
 </sst>
 </file>
@@ -465,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,206 +358,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/phase_4_dcf_model/watchlist.xlsx
+++ b/phase_4_dcf_model/watchlist.xlsx
@@ -8,26 +8,70 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delic\OneDrive\Desktop\pythonvaluationmodel\phase_4_dcf_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B779E72A-498D-4654-AC8C-2D58D51089E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EF904F-571F-4A58-8F8B-2A716CD3DBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>aapl</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>googl</t>
+  </si>
+  <si>
+    <t>nvda</t>
+  </si>
+  <si>
+    <t>tsm</t>
+  </si>
+  <si>
+    <t>pltr</t>
+  </si>
+  <si>
+    <t>amd</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>amzn</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>ma</t>
   </si>
 </sst>
 </file>
@@ -345,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -358,6 +402,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/phase_4_dcf_model/watchlist.xlsx
+++ b/phase_4_dcf_model/watchlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delic\OneDrive\Desktop\pythonvaluationmodel\phase_4_dcf_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EF904F-571F-4A58-8F8B-2A716CD3DBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D3E21-814F-465E-8F5D-281794379C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,42 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>aapl</t>
-  </si>
-  <si>
-    <t>ko</t>
-  </si>
-  <si>
-    <t>googl</t>
-  </si>
-  <si>
-    <t>nvda</t>
-  </si>
-  <si>
-    <t>tsm</t>
-  </si>
-  <si>
-    <t>pltr</t>
-  </si>
-  <si>
-    <t>amd</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>amzn</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>ma</t>
   </si>
 </sst>
 </file>
@@ -389,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -402,61 +369,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/phase_4_dcf_model/watchlist.xlsx
+++ b/phase_4_dcf_model/watchlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delic\OneDrive\Desktop\pythonvaluationmodel\phase_4_dcf_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D3E21-814F-465E-8F5D-281794379C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F416BD-52F8-4378-99A2-D7B879E79608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>aapl</t>
+    <t>wmt</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/phase_4_dcf_model/watchlist.xlsx
+++ b/phase_4_dcf_model/watchlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delic\OneDrive\Desktop\pythonvaluationmodel\phase_4_dcf_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F416BD-52F8-4378-99A2-D7B879E79608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD0FC65-2A0E-42F0-9232-1929245F48E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>wmt</t>
+    <t>pltr</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/phase_4_dcf_model/watchlist.xlsx
+++ b/phase_4_dcf_model/watchlist.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delic\OneDrive\Desktop\pythonvaluationmodel\phase_4_dcf_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD0FC65-2A0E-42F0-9232-1929245F48E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD531F4-09C9-4730-83D0-7AF2E51E8937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PB_CACHE" sheetId="2" state="veryHidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>pltr</t>
+  </si>
+  <si>
+    <t>H4sIAAAAAAAEAM2QvU7DMBSF3QZEEDyEdyIrKf2hQxYCAokORalYqqo41hWx6tjBdpDSx+gLgx2lMLAwcgffa0vnu8cHDRBCn65893U5dMfzkltW3iq1w6u2BoMXvNBUtxF+AW24kukoHk1JQmISRzhrhG00pBIaq6mI8LIpBGdP0K7UDmQqGyFOPT//xm477LbHkhw0p4LvaSEgo6yE3y9XK1Uv4ANEd7vjzDobThs47lnvKsxUVVMNOnykpsz5HlCAwsMgb42FimRKCOh0hjyAdBvYsd+/N26bbY+A12S97lW51Vy+RbgyTGnBi58Mxv77fwmgmM3ohE2myfx6DPHNfLMJh33c50E/nPjhP1r15i6+APaTkYMnAgAA</t>
   </si>
 </sst>
 </file>
@@ -355,11 +359,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4CF2D6-3480-40F8-AE4C-C16E7AE89825}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/phase_4_dcf_model/watchlist.xlsx
+++ b/phase_4_dcf_model/watchlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delic\OneDrive\Desktop\pythonvaluationmodel\phase_4_dcf_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD531F4-09C9-4730-83D0-7AF2E51E8937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF7DD5C-3239-41FB-8671-E2078523F863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>pltr</t>
+    <t>H4sIAAAAAAAEAM2QvU7DMBSF3QZEEDyEdyIrKf2hQxYCAokORalYqqo41hWx6tjBdpDSx+gLgx2lMLAwcgffa0vnu8cHDRBCn65893U5dMfzkltW3iq1w6u2BoMXvNBUtxF+AW24kukoHk1JQmISRzhrhG00pBIaq6mI8LIpBGdP0K7UDmQqGyFOPT//xm477LbHkhw0p4LvaSEgo6yE3y9XK1Uv4ANEd7vjzDobThs47lnvKsxUVVMNOnykpsz5HlCAwsMgb42FimRKCOh0hjyAdBvYsd+/N26bbY+A12S97lW51Vy+RbgyTGnBi58Mxv77fwmgmM3ohE2myfx6DPHNfLMJh33c50E/nPjhP1r15i6+APaTkYMnAgAA</t>
   </si>
   <si>
-    <t>H4sIAAAAAAAEAM2QvU7DMBSF3QZEEDyEdyIrKf2hQxYCAokORalYqqo41hWx6tjBdpDSx+gLgx2lMLAwcgffa0vnu8cHDRBCn65893U5dMfzkltW3iq1w6u2BoMXvNBUtxF+AW24kukoHk1JQmISRzhrhG00pBIaq6mI8LIpBGdP0K7UDmQqGyFOPT//xm477LbHkhw0p4LvaSEgo6yE3y9XK1Uv4ANEd7vjzDobThs47lnvKsxUVVMNOnykpsz5HlCAwsMgb42FimRKCOh0hjyAdBvYsd+/N26bbY+A12S97lW51Vy+RbgyTGnBi58Mxv77fwmgmM3ohE2myfx6DPHNfLMJh33c50E/nPjhP1r15i6+APaTkYMnAgAA</t>
+    <t>wmt</t>
   </si>
 </sst>
 </file>
@@ -368,30 +368,30 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>